--- a/params/interface.xlsx
+++ b/params/interface.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面文档\API\ApiTest\params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_testcase\python_excel_testcase0407-2\ApiTest\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16A605B-251D-4B3D-8288-A8B7DCF49DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC59256D-8763-4A64-876F-825002CF43EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46AD79BF-D8DA-4949-9F52-0431D02E7E6B}"/>
+    <workbookView xWindow="2805" yWindow="765" windowWidth="15375" windowHeight="7875" xr2:uid="{46AD79BF-D8DA-4949-9F52-0431D02E7E6B}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCase" sheetId="1" r:id="rId1"/>
@@ -31,22 +31,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>{"User-Agent":"Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/73.0.3683.86 Safari/537.36"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SUCCESS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userName":"tongjc","password":"12687c51cdf79bcfbd19407adb36e410","verificationCode":"ds","cancelToken":{"promise":{}}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userName":"tongjc","password":"12687c51cd111f79bcfbd19407adb36e410","verificationCode":"ds","cancelToken":{"promise":{}}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>method</t>
@@ -90,11 +82,11 @@
   </si>
   <si>
     <t>msg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>result</t>
@@ -105,37 +97,24 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"User-Agent":"Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/73.0.3683.86 Safari/537.37"}</t>
-  </si>
-  <si>
     <t>login_fail</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>relation_data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>http://web.test4.smartpig.bajietong.net/api/v2/base/account/login</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>depend_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>depend_data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>smartpig-001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>smartpig-002</t>
-  </si>
-  <si>
-    <t>smartpig-003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
@@ -143,81 +122,74 @@
   </si>
   <si>
     <t>http://web.test4.smartpig.bajietong.net/api/v2/event/pigletdemandplan/save</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pigletdemandplan</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>test_pigletdemandplan</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>smartpig-004</t>
   </si>
   <si>
     <t>run</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>yes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>"code":"SUCCESS"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>http://web.test4.smartpig.bajietong.net/api/v2/event/pigletdemandplan/pagelist</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>postjson</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>test_pigletdemandplan_search</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pigletdemandplan_search</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>login_success</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>"companyId":"5f8e8bcc-c077-46f5-a6ae-d9cfa28bb763"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>smartpig-005</t>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>test_pigletdemandplan_delete</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>http://web.test4.smartpig.bajietong.net/api/v2/event/pigletdemandplan/del/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>delete</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{"cancelToken":{"promise":{}}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>testresult</t>
@@ -225,36 +197,72 @@
   </si>
   <si>
     <t>http://web.test4.smartpig.bajietong.net/api/v2/event/pigletdemandplan/save</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>smartpig-006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>test_pigletdemandplan_edit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pigletdemandplan_edit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>"msg":"成功"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>$.data.list[0].docNo</t>
   </si>
   <si>
     <t>$.data.list[0].uid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseurl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://test.ca3.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>login-002</t>
+  </si>
+  <si>
+    <t>login-003</t>
+  </si>
+  <si>
+    <t>login-004</t>
+  </si>
+  <si>
+    <t>login-005</t>
+  </si>
+  <si>
+    <t>login-006</t>
+  </si>
+  <si>
+    <t>{"email":"ain@163.com","password_digest":"afdd0b4ad2ec172c586e2150770fbf9e"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://test.ca3.com/api/v1/sessions/email_sign_in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,12 +282,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -339,23 +341,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,232 +674,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5681F113-1F11-4CB9-9DEA-F127B9323470}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="81" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="36.125" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="68" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
         <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{94CCC38B-7252-405D-A61C-AB2E3E03B258}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{281A44EC-CA6E-401A-B37A-5244CEFA35EE}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{6BE6D4A0-5E90-4F8B-ABCC-53A09DA3ED6F}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{5A594869-BA64-4262-BDFF-AAA1733D2A65}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{9ED5C1D9-7973-4064-B263-C0B7D1DB3B3D}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{AE495B42-AC97-4BB8-8230-C98E4D5421DC}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{94CCC38B-7252-405D-A61C-AB2E3E03B258}"/>
+    <hyperlink ref="E2" r:id="rId2" display="http://web.test4.smartpig.bajietong.net/api/v2/base/account/login" xr:uid="{281A44EC-CA6E-401A-B37A-5244CEFA35EE}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{6BE6D4A0-5E90-4F8B-ABCC-53A09DA3ED6F}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{5A594869-BA64-4262-BDFF-AAA1733D2A65}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{9ED5C1D9-7973-4064-B263-C0B7D1DB3B3D}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{AE495B42-AC97-4BB8-8230-C98E4D5421DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="306" orientation="landscape" r:id="rId7"/>
@@ -910,50 +944,50 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="1" max="1" width="47.5" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="4" max="4" width="99.875" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -961,19 +995,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
